--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_Preview.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_Preview.xlsx
@@ -3,16 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\project\UK\UniversalK\nts.uk\file\pr\nts.uk.file.pr.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="9420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="5655"/>
   </bookViews>
   <sheets>
-    <sheet name="CrimpStyle" sheetId="2" r:id="rId1"/>
+    <sheet name="ZFolded" sheetId="2" r:id="rId1"/>
     <sheet name="Vertical1_" sheetId="9" r:id="rId2"/>
     <sheet name="Vertical1" sheetId="5" r:id="rId3"/>
     <sheet name="Vertical2" sheetId="3" r:id="rId4"/>
@@ -23,7 +18,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Vertical1!$A$1:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Vertical1_!$A$1:$K$71</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:W19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -614,11 +610,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,11 +646,14 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,38 +682,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,44 +727,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1737,8 +1733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="59221" y="10717694"/>
-          <a:ext cx="6618633" cy="268153"/>
+          <a:off x="57150" y="10499861"/>
+          <a:ext cx="6640996" cy="266083"/>
           <a:chOff x="62991" y="8472538"/>
           <a:chExt cx="6480271" cy="500585"/>
         </a:xfrm>
@@ -2578,8 +2574,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="22114565"/>
-          <a:ext cx="0" cy="450370"/>
+          <a:off x="0" y="21644113"/>
+          <a:ext cx="0" cy="456582"/>
           <a:chOff x="62991" y="8472540"/>
           <a:chExt cx="6480270" cy="500583"/>
         </a:xfrm>
@@ -2809,8 +2805,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="59221" y="3760308"/>
-          <a:ext cx="6620702" cy="475218"/>
+          <a:off x="57150" y="3677482"/>
+          <a:ext cx="6640995" cy="464036"/>
           <a:chOff x="62991" y="8472540"/>
           <a:chExt cx="6480270" cy="500583"/>
         </a:xfrm>
@@ -11024,9 +11020,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
@@ -11049,42 +11045,42 @@
   <sheetData>
     <row r="1" spans="3:13" ht="7.5" customHeight="1"/>
     <row r="14" spans="3:13">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="44" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="44" t="s">
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="47" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="12"/>
@@ -11100,24 +11096,24 @@
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="39"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="39"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="13"/>
@@ -11133,24 +11129,24 @@
       <c r="F25" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G25" s="42">
-        <v>9999999999</v>
-      </c>
-      <c r="H25" s="43"/>
+      <c r="G25" s="47">
+        <v>9999999999</v>
+      </c>
+      <c r="H25" s="45"/>
       <c r="I25" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J25" s="42">
-        <v>9999999999</v>
-      </c>
-      <c r="K25" s="43"/>
+      <c r="J25" s="47">
+        <v>9999999999</v>
+      </c>
+      <c r="K25" s="45"/>
       <c r="L25" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M25" s="42">
-        <v>9999999999</v>
-      </c>
-      <c r="N25" s="43"/>
+      <c r="M25" s="47">
+        <v>9999999999</v>
+      </c>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="13"/>
@@ -11166,24 +11162,24 @@
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="39"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="39"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="13"/>
@@ -11199,24 +11195,24 @@
       <c r="F27" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G27" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H27" s="41"/>
+      <c r="G27" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H27" s="49"/>
       <c r="I27" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J27" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K27" s="41"/>
+      <c r="J27" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K27" s="49"/>
       <c r="L27" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M27" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N27" s="41"/>
+      <c r="M27" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="13"/>
@@ -11232,24 +11228,24 @@
       <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="39"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="39"/>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="13"/>
@@ -11265,24 +11261,24 @@
       <c r="F29" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G29" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H29" s="41"/>
+      <c r="G29" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H29" s="49"/>
       <c r="I29" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J29" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K29" s="41"/>
+      <c r="J29" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K29" s="49"/>
       <c r="L29" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M29" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N29" s="41"/>
+      <c r="M29" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="13"/>
@@ -11298,24 +11294,24 @@
       <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="39"/>
+      <c r="K30" s="41"/>
       <c r="L30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="38" t="s">
+      <c r="M30" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="39"/>
+      <c r="N30" s="41"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="13"/>
@@ -11331,24 +11327,24 @@
       <c r="F31" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G31" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H31" s="41"/>
+      <c r="G31" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H31" s="49"/>
       <c r="I31" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J31" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K31" s="41"/>
+      <c r="J31" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K31" s="49"/>
       <c r="L31" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M31" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N31" s="41"/>
+      <c r="M31" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N31" s="49"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="13"/>
@@ -11364,24 +11360,24 @@
       <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="39"/>
+      <c r="K32" s="41"/>
       <c r="L32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="38" t="s">
+      <c r="M32" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="39"/>
+      <c r="N32" s="41"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="14"/>
@@ -11397,24 +11393,24 @@
       <c r="F33" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G33" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H33" s="41"/>
+      <c r="G33" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H33" s="49"/>
       <c r="I33" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J33" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K33" s="41"/>
+      <c r="J33" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K33" s="49"/>
       <c r="L33" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M33" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N33" s="41"/>
+      <c r="M33" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N33" s="49"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="12"/>
@@ -11430,24 +11426,24 @@
       <c r="F35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="39"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M35" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="39"/>
+      <c r="N35" s="41"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="13"/>
@@ -11463,24 +11459,24 @@
       <c r="F36" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G36" s="42">
-        <v>9999999999</v>
-      </c>
-      <c r="H36" s="43"/>
+      <c r="G36" s="47">
+        <v>9999999999</v>
+      </c>
+      <c r="H36" s="45"/>
       <c r="I36" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J36" s="54">
-        <v>9999999999</v>
-      </c>
-      <c r="K36" s="39"/>
+      <c r="J36" s="52">
+        <v>9999999999</v>
+      </c>
+      <c r="K36" s="41"/>
       <c r="L36" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M36" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N36" s="41"/>
+      <c r="M36" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N36" s="49"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="13"/>
@@ -11496,24 +11492,24 @@
       <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="39"/>
+      <c r="K37" s="41"/>
       <c r="L37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="38" t="s">
+      <c r="M37" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="39"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="13"/>
@@ -11529,24 +11525,24 @@
       <c r="F38" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G38" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H38" s="41"/>
+      <c r="G38" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H38" s="49"/>
       <c r="I38" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J38" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K38" s="41"/>
+      <c r="J38" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K38" s="49"/>
       <c r="L38" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M38" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N38" s="41"/>
+      <c r="M38" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N38" s="49"/>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="13"/>
@@ -11562,24 +11558,24 @@
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="41"/>
       <c r="I39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="39"/>
+      <c r="K39" s="41"/>
       <c r="L39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="M39" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="39"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="2:14">
       <c r="B40" s="13"/>
@@ -11595,24 +11591,24 @@
       <c r="F40" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G40" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H40" s="41"/>
+      <c r="G40" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H40" s="49"/>
       <c r="I40" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J40" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K40" s="41"/>
+      <c r="J40" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K40" s="49"/>
       <c r="L40" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M40" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N40" s="41"/>
+      <c r="M40" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" spans="2:14">
       <c r="B41" s="13"/>
@@ -11628,24 +11624,24 @@
       <c r="F41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="41"/>
       <c r="I41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="38" t="s">
+      <c r="J41" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="39"/>
+      <c r="K41" s="41"/>
       <c r="L41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="38" t="s">
+      <c r="M41" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="39"/>
+      <c r="N41" s="41"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="13"/>
@@ -11661,24 +11657,24 @@
       <c r="F42" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G42" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H42" s="41"/>
+      <c r="G42" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H42" s="49"/>
       <c r="I42" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J42" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K42" s="41"/>
+      <c r="J42" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K42" s="49"/>
       <c r="L42" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M42" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="N42" s="41"/>
+      <c r="M42" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="N42" s="49"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="13"/>
@@ -11694,24 +11690,24 @@
       <c r="F43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="39"/>
+      <c r="K43" s="41"/>
       <c r="L43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M43" s="38" t="s">
+      <c r="M43" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="39"/>
+      <c r="N43" s="41"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="14"/>
@@ -11727,24 +11723,24 @@
       <c r="F44" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G44" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="H44" s="41"/>
+      <c r="G44" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="H44" s="49"/>
       <c r="I44" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J44" s="40">
-        <v>9999999999</v>
-      </c>
-      <c r="K44" s="41"/>
+      <c r="J44" s="48">
+        <v>9999999999</v>
+      </c>
+      <c r="K44" s="49"/>
       <c r="L44" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M44" s="42">
-        <v>9999999999</v>
-      </c>
-      <c r="N44" s="43"/>
+      <c r="M44" s="47">
+        <v>9999999999</v>
+      </c>
+      <c r="N44" s="45"/>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="12"/>
@@ -11760,24 +11756,24 @@
       <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="39"/>
+      <c r="H46" s="41"/>
       <c r="I46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="39"/>
+      <c r="K46" s="41"/>
       <c r="L46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="38" t="s">
+      <c r="M46" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N46" s="39"/>
+      <c r="N46" s="41"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="13"/>
@@ -11793,24 +11789,24 @@
       <c r="F47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="57"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="60" t="s">
+      <c r="J47" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K47" s="61"/>
+      <c r="K47" s="43"/>
       <c r="L47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="60" t="s">
+      <c r="M47" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="N47" s="61"/>
+      <c r="N47" s="43"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="13"/>
@@ -11826,24 +11822,24 @@
       <c r="F48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="41"/>
       <c r="I48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="J48" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K48" s="39"/>
+      <c r="K48" s="41"/>
       <c r="L48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M48" s="38" t="s">
+      <c r="M48" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N48" s="39"/>
+      <c r="N48" s="41"/>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="13"/>
@@ -11859,24 +11855,24 @@
       <c r="F49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="43"/>
+      <c r="H49" s="45"/>
       <c r="I49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="55" t="s">
+      <c r="J49" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="43"/>
+      <c r="K49" s="45"/>
       <c r="L49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="55" t="s">
+      <c r="M49" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N49" s="43"/>
+      <c r="N49" s="45"/>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="13"/>
@@ -11892,24 +11888,24 @@
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="41"/>
       <c r="I50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="38" t="s">
+      <c r="J50" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="39"/>
+      <c r="K50" s="41"/>
       <c r="L50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M50" s="38" t="s">
+      <c r="M50" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N50" s="39"/>
+      <c r="N50" s="41"/>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" s="13"/>
@@ -11925,24 +11921,24 @@
       <c r="F51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="53" t="s">
+      <c r="G51" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="43"/>
+      <c r="H51" s="45"/>
       <c r="I51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="55" t="s">
+      <c r="J51" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="43"/>
+      <c r="K51" s="45"/>
       <c r="L51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="53" t="s">
+      <c r="M51" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N51" s="43"/>
+      <c r="N51" s="45"/>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" s="13"/>
@@ -11958,24 +11954,24 @@
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="39"/>
+      <c r="H52" s="41"/>
       <c r="I52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="38" t="s">
+      <c r="J52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="39"/>
+      <c r="K52" s="41"/>
       <c r="L52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M52" s="38" t="s">
+      <c r="M52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="39"/>
+      <c r="N52" s="41"/>
     </row>
     <row r="53" spans="2:14">
       <c r="B53" s="13"/>
@@ -11991,24 +11987,24 @@
       <c r="F53" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="43"/>
+      <c r="H53" s="45"/>
       <c r="I53" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="55" t="s">
+      <c r="J53" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="43"/>
+      <c r="K53" s="45"/>
       <c r="L53" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="55" t="s">
+      <c r="M53" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N53" s="43"/>
+      <c r="N53" s="45"/>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" s="13"/>
@@ -12024,24 +12020,24 @@
       <c r="F54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="41"/>
       <c r="I54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="38" t="s">
+      <c r="J54" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="39"/>
+      <c r="K54" s="41"/>
       <c r="L54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M54" s="38" t="s">
+      <c r="M54" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N54" s="39"/>
+      <c r="N54" s="41"/>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" s="13"/>
@@ -12057,24 +12053,24 @@
       <c r="F55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="43"/>
+      <c r="H55" s="45"/>
       <c r="I55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="55" t="s">
+      <c r="J55" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="43"/>
+      <c r="K55" s="45"/>
       <c r="L55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M55" s="55" t="s">
+      <c r="M55" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N55" s="43"/>
+      <c r="N55" s="45"/>
     </row>
     <row r="56" spans="2:14" ht="14.25" customHeight="1">
       <c r="B56" s="16"/>
@@ -12090,24 +12086,24 @@
       <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="39"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="38" t="s">
+      <c r="J56" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K56" s="39"/>
+      <c r="K56" s="41"/>
       <c r="L56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M56" s="38" t="s">
+      <c r="M56" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="39"/>
+      <c r="N56" s="41"/>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="15"/>
@@ -12123,24 +12119,24 @@
       <c r="F57" s="3">
         <v>9999999999</v>
       </c>
-      <c r="G57" s="58">
-        <v>9999999999</v>
-      </c>
-      <c r="H57" s="59"/>
+      <c r="G57" s="38">
+        <v>9999999999</v>
+      </c>
+      <c r="H57" s="39"/>
       <c r="I57" s="3">
         <v>9999999999</v>
       </c>
-      <c r="J57" s="58">
-        <v>9999999999</v>
-      </c>
-      <c r="K57" s="59"/>
+      <c r="J57" s="38">
+        <v>9999999999</v>
+      </c>
+      <c r="K57" s="39"/>
       <c r="L57" s="3">
         <v>9999999999</v>
       </c>
-      <c r="M57" s="42">
-        <v>9999999999</v>
-      </c>
-      <c r="N57" s="43"/>
+      <c r="M57" s="47">
+        <v>9999999999</v>
+      </c>
+      <c r="N57" s="45"/>
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="12"/>
@@ -12206,6 +12202,84 @@
     <row r="64" spans="2:14" ht="8.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="J47:K47"/>
@@ -12230,84 +12304,6 @@
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -12319,10 +12315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K139"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -14250,9 +14246,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K143"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A68" sqref="A68:K142"/>
     </sheetView>
   </sheetViews>
@@ -15426,9 +15422,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N88"/>
+  <dimension ref="A3:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
@@ -15460,7 +15456,7 @@
       <c r="F3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="63"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -15470,18 +15466,18 @@
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B4" s="65">
+      <c r="B4" s="76">
         <v>9999999999</v>
       </c>
       <c r="C4" s="63"/>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="76" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="63"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -15521,7 +15517,7 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="62" t="s">
@@ -15556,22 +15552,22 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B8" s="69"/>
-      <c r="C8" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F8" s="67"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F8" s="73"/>
       <c r="G8" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H8" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I8" s="67"/>
+      <c r="H8" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I8" s="73"/>
       <c r="J8" s="3">
         <v>9999999999</v>
       </c>
@@ -15589,7 +15585,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B9" s="69"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="62" t="s">
         <v>12</v>
       </c>
@@ -15622,22 +15618,22 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B10" s="69"/>
-      <c r="C10" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F10" s="67"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F10" s="73"/>
       <c r="G10" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H10" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I10" s="67"/>
+      <c r="H10" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I10" s="73"/>
       <c r="J10" s="3">
         <v>9999999999</v>
       </c>
@@ -15655,7 +15651,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B11" s="69"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="62" t="s">
         <v>12</v>
       </c>
@@ -15688,22 +15684,22 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F12" s="67"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F12" s="73"/>
       <c r="G12" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H12" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I12" s="67"/>
+      <c r="H12" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I12" s="73"/>
       <c r="J12" s="3">
         <v>9999999999</v>
       </c>
@@ -15721,7 +15717,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B13" s="69"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="62" t="s">
         <v>12</v>
       </c>
@@ -15754,22 +15750,22 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B14" s="69"/>
-      <c r="C14" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F14" s="72"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F14" s="70"/>
       <c r="G14" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H14" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I14" s="72"/>
+      <c r="H14" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I14" s="70"/>
       <c r="J14" s="3">
         <v>9999999999</v>
       </c>
@@ -15787,7 +15783,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B15" s="69"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="62" t="s">
         <v>12</v>
       </c>
@@ -15820,22 +15816,22 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B16" s="70"/>
-      <c r="C16" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F16" s="72"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F16" s="70"/>
       <c r="G16" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H16" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I16" s="72"/>
+      <c r="H16" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I16" s="70"/>
       <c r="J16" s="3">
         <v>9999999999</v>
       </c>
@@ -15854,7 +15850,7 @@
     </row>
     <row r="17" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="18" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="62" t="s">
@@ -15889,22 +15885,22 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F19" s="67"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F19" s="73"/>
       <c r="G19" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H19" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I19" s="67"/>
+      <c r="H19" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I19" s="73"/>
       <c r="J19" s="3">
         <v>9999999999</v>
       </c>
@@ -15922,7 +15918,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B20" s="69"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="62" t="s">
         <v>12</v>
       </c>
@@ -15955,22 +15951,22 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B21" s="69"/>
-      <c r="C21" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F21" s="67"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F21" s="73"/>
       <c r="G21" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H21" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I21" s="67"/>
+      <c r="H21" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I21" s="73"/>
       <c r="J21" s="3">
         <v>9999999999</v>
       </c>
@@ -15988,7 +15984,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B22" s="69"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="62" t="s">
         <v>12</v>
       </c>
@@ -16021,22 +16017,22 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B23" s="69"/>
-      <c r="C23" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F23" s="67"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F23" s="73"/>
       <c r="G23" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H23" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I23" s="67"/>
+      <c r="H23" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I23" s="73"/>
       <c r="J23" s="3">
         <v>9999999999</v>
       </c>
@@ -16054,7 +16050,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B24" s="69"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>12</v>
       </c>
@@ -16087,22 +16083,22 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B25" s="69"/>
-      <c r="C25" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F25" s="72"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F25" s="70"/>
       <c r="G25" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H25" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I25" s="72"/>
+      <c r="H25" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I25" s="70"/>
       <c r="J25" s="3">
         <v>9999999999</v>
       </c>
@@ -16120,7 +16116,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B26" s="69"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="62" t="s">
         <v>12</v>
       </c>
@@ -16153,22 +16149,22 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B27" s="70"/>
-      <c r="C27" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F27" s="72"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F27" s="70"/>
       <c r="G27" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H27" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I27" s="72"/>
+      <c r="H27" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I27" s="70"/>
       <c r="J27" s="3">
         <v>9999999999</v>
       </c>
@@ -16187,7 +16183,7 @@
     </row>
     <row r="28" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="29" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="62" t="s">
@@ -16222,22 +16218,22 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B30" s="69"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75" t="s">
+      <c r="D30" s="65"/>
+      <c r="E30" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="74"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="74"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="18" t="s">
         <v>15</v>
       </c>
@@ -16255,7 +16251,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B31" s="69"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="62" t="s">
         <v>12</v>
       </c>
@@ -16288,22 +16284,22 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B32" s="69"/>
-      <c r="C32" s="73" t="s">
+      <c r="B32" s="78"/>
+      <c r="C32" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="73" t="s">
+      <c r="D32" s="65"/>
+      <c r="E32" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="74"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="74"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="18" t="s">
         <v>15</v>
       </c>
@@ -16321,7 +16317,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B33" s="69"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="62" t="s">
         <v>12</v>
       </c>
@@ -16354,22 +16350,22 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B34" s="69"/>
-      <c r="C34" s="75" t="s">
+      <c r="B34" s="78"/>
+      <c r="C34" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75" t="s">
+      <c r="D34" s="65"/>
+      <c r="E34" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="74"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="74"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="18" t="s">
         <v>15</v>
       </c>
@@ -16387,7 +16383,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B35" s="69"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="62" t="s">
         <v>12</v>
       </c>
@@ -16420,22 +16416,22 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B36" s="69"/>
-      <c r="C36" s="73" t="s">
+      <c r="B36" s="78"/>
+      <c r="C36" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="73" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="73" t="s">
+      <c r="H36" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="74"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="18" t="s">
         <v>15</v>
       </c>
@@ -16453,7 +16449,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B37" s="69"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="62" t="s">
         <v>12</v>
       </c>
@@ -16486,22 +16482,22 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B38" s="70"/>
-      <c r="C38" s="73" t="s">
+      <c r="B38" s="77"/>
+      <c r="C38" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="73" t="s">
+      <c r="D38" s="65"/>
+      <c r="E38" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="74"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="73" t="s">
+      <c r="H38" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="74"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="18" t="s">
         <v>15</v>
       </c>
@@ -16519,7 +16515,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="62" t="s">
@@ -16554,22 +16550,22 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B40" s="70"/>
-      <c r="C40" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F40" s="72"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F40" s="70"/>
       <c r="G40" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H40" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I40" s="72"/>
+      <c r="H40" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I40" s="70"/>
       <c r="J40" s="3">
         <v>9999999999</v>
       </c>
@@ -16587,10 +16583,10 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="9.75" customHeight="1">
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="76"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="10" t="s">
         <v>16</v>
       </c>
@@ -16634,7 +16630,7 @@
       <c r="F47" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="64"/>
+      <c r="G47" s="75"/>
       <c r="H47" s="63"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -16644,18 +16640,18 @@
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B48" s="65">
+      <c r="B48" s="76">
         <v>9999999999</v>
       </c>
       <c r="C48" s="63"/>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="76" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="64"/>
+      <c r="G48" s="75"/>
       <c r="H48" s="63"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -16695,7 +16691,7 @@
       <c r="N50" s="9"/>
     </row>
     <row r="51" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -16730,22 +16726,22 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B52" s="77"/>
-      <c r="C52" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F52" s="67"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F52" s="73"/>
       <c r="G52" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H52" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I52" s="67"/>
+      <c r="H52" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I52" s="73"/>
       <c r="J52" s="3">
         <v>9999999999</v>
       </c>
@@ -16763,7 +16759,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B53" s="77"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="62" t="s">
         <v>12</v>
       </c>
@@ -16796,22 +16792,22 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B54" s="77"/>
-      <c r="C54" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F54" s="67"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D54" s="73"/>
+      <c r="E54" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F54" s="73"/>
       <c r="G54" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H54" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I54" s="67"/>
+      <c r="H54" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I54" s="73"/>
       <c r="J54" s="3">
         <v>9999999999</v>
       </c>
@@ -16829,7 +16825,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B55" s="77"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="62" t="s">
         <v>12</v>
       </c>
@@ -16862,22 +16858,22 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B56" s="77"/>
-      <c r="C56" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F56" s="67"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D56" s="73"/>
+      <c r="E56" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F56" s="73"/>
       <c r="G56" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H56" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I56" s="67"/>
+      <c r="H56" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I56" s="73"/>
       <c r="J56" s="3">
         <v>9999999999</v>
       </c>
@@ -16895,7 +16891,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B57" s="77"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="62" t="s">
         <v>12</v>
       </c>
@@ -16928,22 +16924,22 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B58" s="77"/>
-      <c r="C58" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D58" s="72"/>
-      <c r="E58" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F58" s="72"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D58" s="70"/>
+      <c r="E58" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F58" s="70"/>
       <c r="G58" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H58" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I58" s="72"/>
+      <c r="H58" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I58" s="70"/>
       <c r="J58" s="3">
         <v>9999999999</v>
       </c>
@@ -16961,7 +16957,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B59" s="77"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="62" t="s">
         <v>12</v>
       </c>
@@ -16994,22 +16990,22 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B60" s="78"/>
-      <c r="C60" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F60" s="72"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D60" s="70"/>
+      <c r="E60" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F60" s="70"/>
       <c r="G60" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H60" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I60" s="72"/>
+      <c r="H60" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I60" s="70"/>
       <c r="J60" s="3">
         <v>9999999999</v>
       </c>
@@ -17028,7 +17024,7 @@
     </row>
     <row r="61" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="62" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="67" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="62" t="s">
@@ -17063,22 +17059,22 @@
       </c>
     </row>
     <row r="63" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B63" s="77"/>
-      <c r="C63" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F63" s="67"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D63" s="73"/>
+      <c r="E63" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F63" s="73"/>
       <c r="G63" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H63" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I63" s="67"/>
+      <c r="H63" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I63" s="73"/>
       <c r="J63" s="3">
         <v>9999999999</v>
       </c>
@@ -17096,7 +17092,7 @@
       </c>
     </row>
     <row r="64" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B64" s="77"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="62" t="s">
         <v>12</v>
       </c>
@@ -17129,22 +17125,22 @@
       </c>
     </row>
     <row r="65" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B65" s="77"/>
-      <c r="C65" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F65" s="67"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D65" s="73"/>
+      <c r="E65" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F65" s="73"/>
       <c r="G65" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H65" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I65" s="67"/>
+      <c r="H65" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I65" s="73"/>
       <c r="J65" s="3">
         <v>9999999999</v>
       </c>
@@ -17162,7 +17158,7 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B66" s="77"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="62" t="s">
         <v>12</v>
       </c>
@@ -17195,22 +17191,22 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B67" s="77"/>
-      <c r="C67" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="F67" s="67"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="D67" s="73"/>
+      <c r="E67" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="F67" s="73"/>
       <c r="G67" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H67" s="66">
-        <v>9999999999</v>
-      </c>
-      <c r="I67" s="67"/>
+      <c r="H67" s="72">
+        <v>9999999999</v>
+      </c>
+      <c r="I67" s="73"/>
       <c r="J67" s="3">
         <v>9999999999</v>
       </c>
@@ -17228,7 +17224,7 @@
       </c>
     </row>
     <row r="68" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B68" s="77"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="62" t="s">
         <v>12</v>
       </c>
@@ -17261,22 +17257,22 @@
       </c>
     </row>
     <row r="69" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B69" s="77"/>
-      <c r="C69" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D69" s="72"/>
-      <c r="E69" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F69" s="72"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D69" s="70"/>
+      <c r="E69" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F69" s="70"/>
       <c r="G69" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H69" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I69" s="72"/>
+      <c r="H69" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I69" s="70"/>
       <c r="J69" s="3">
         <v>9999999999</v>
       </c>
@@ -17294,7 +17290,7 @@
       </c>
     </row>
     <row r="70" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B70" s="77"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="62" t="s">
         <v>12</v>
       </c>
@@ -17327,22 +17323,22 @@
       </c>
     </row>
     <row r="71" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B71" s="78"/>
-      <c r="C71" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D71" s="72"/>
-      <c r="E71" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F71" s="72"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D71" s="70"/>
+      <c r="E71" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F71" s="70"/>
       <c r="G71" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H71" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I71" s="72"/>
+      <c r="H71" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I71" s="70"/>
       <c r="J71" s="3">
         <v>9999999999</v>
       </c>
@@ -17361,7 +17357,7 @@
     </row>
     <row r="72" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="73" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="62" t="s">
@@ -17396,22 +17392,22 @@
       </c>
     </row>
     <row r="74" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B74" s="77"/>
-      <c r="C74" s="75" t="s">
+      <c r="B74" s="71"/>
+      <c r="C74" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="75" t="s">
+      <c r="D74" s="65"/>
+      <c r="E74" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="74"/>
+      <c r="F74" s="65"/>
       <c r="G74" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="75" t="s">
+      <c r="H74" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="74"/>
+      <c r="I74" s="65"/>
       <c r="J74" s="18" t="s">
         <v>15</v>
       </c>
@@ -17429,7 +17425,7 @@
       </c>
     </row>
     <row r="75" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B75" s="77"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="62" t="s">
         <v>12</v>
       </c>
@@ -17462,22 +17458,22 @@
       </c>
     </row>
     <row r="76" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B76" s="77"/>
-      <c r="C76" s="73" t="s">
+      <c r="B76" s="71"/>
+      <c r="C76" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="74"/>
-      <c r="E76" s="73" t="s">
+      <c r="D76" s="65"/>
+      <c r="E76" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="74"/>
+      <c r="F76" s="65"/>
       <c r="G76" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="73" t="s">
+      <c r="H76" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="74"/>
+      <c r="I76" s="65"/>
       <c r="J76" s="18" t="s">
         <v>15</v>
       </c>
@@ -17495,7 +17491,7 @@
       </c>
     </row>
     <row r="77" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B77" s="77"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="62" t="s">
         <v>12</v>
       </c>
@@ -17528,22 +17524,22 @@
       </c>
     </row>
     <row r="78" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B78" s="77"/>
-      <c r="C78" s="75" t="s">
+      <c r="B78" s="71"/>
+      <c r="C78" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="74"/>
-      <c r="E78" s="75" t="s">
+      <c r="D78" s="65"/>
+      <c r="E78" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="74"/>
+      <c r="F78" s="65"/>
       <c r="G78" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="75" t="s">
+      <c r="H78" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="74"/>
+      <c r="I78" s="65"/>
       <c r="J78" s="18" t="s">
         <v>15</v>
       </c>
@@ -17561,7 +17557,7 @@
       </c>
     </row>
     <row r="79" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B79" s="77"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="62" t="s">
         <v>12</v>
       </c>
@@ -17594,22 +17590,22 @@
       </c>
     </row>
     <row r="80" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B80" s="77"/>
-      <c r="C80" s="73" t="s">
+      <c r="B80" s="71"/>
+      <c r="C80" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="74"/>
-      <c r="E80" s="73" t="s">
+      <c r="D80" s="65"/>
+      <c r="E80" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="74"/>
+      <c r="F80" s="65"/>
       <c r="G80" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="73" t="s">
+      <c r="H80" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="74"/>
+      <c r="I80" s="65"/>
       <c r="J80" s="18" t="s">
         <v>15</v>
       </c>
@@ -17627,7 +17623,7 @@
       </c>
     </row>
     <row r="81" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B81" s="77"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="62" t="s">
         <v>12</v>
       </c>
@@ -17660,22 +17656,22 @@
       </c>
     </row>
     <row r="82" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B82" s="78"/>
-      <c r="C82" s="73" t="s">
+      <c r="B82" s="68"/>
+      <c r="C82" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="74"/>
-      <c r="E82" s="73" t="s">
+      <c r="D82" s="65"/>
+      <c r="E82" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="74"/>
+      <c r="F82" s="65"/>
       <c r="G82" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="73" t="s">
+      <c r="H82" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="74"/>
+      <c r="I82" s="65"/>
       <c r="J82" s="18" t="s">
         <v>15</v>
       </c>
@@ -17693,7 +17689,7 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="62" t="s">
@@ -17728,22 +17724,22 @@
       </c>
     </row>
     <row r="84" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B84" s="78"/>
-      <c r="C84" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="D84" s="72"/>
-      <c r="E84" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="F84" s="72"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="D84" s="70"/>
+      <c r="E84" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="F84" s="70"/>
       <c r="G84" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H84" s="71">
-        <v>9999999999</v>
-      </c>
-      <c r="I84" s="72"/>
+      <c r="H84" s="69">
+        <v>9999999999</v>
+      </c>
+      <c r="I84" s="70"/>
       <c r="J84" s="3">
         <v>9999999999</v>
       </c>
@@ -17809,20 +17805,181 @@
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="H76:I76"/>
@@ -17847,181 +18004,20 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18087,7 +18083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -19072,7 +19068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
